--- a/simulation results/bias results.xlsx
+++ b/simulation results/bias results.xlsx
@@ -8,17 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xijuan/local-fit-indices2/simulation results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB34A63C-B3EF-084F-823A-9A4ADD98C044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD2E645-9ADC-9645-B1A9-D4E8F1457A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="4020" windowWidth="28040" windowHeight="17440" activeTab="5" xr2:uid="{24F9D8EF-A3BA-0B44-B745-401C9E264CEF}"/>
+    <workbookView xWindow="9340" yWindow="2440" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{24F9D8EF-A3BA-0B44-B745-401C9E264CEF}"/>
   </bookViews>
   <sheets>
     <sheet name="high reliability model" sheetId="2" r:id="rId1"/>
     <sheet name="Original Model" sheetId="3" r:id="rId2"/>
     <sheet name="Original (3decimal place)" sheetId="4" r:id="rId3"/>
     <sheet name="High (3 decimal place)" sheetId="5" r:id="rId4"/>
-    <sheet name="for making tables" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet7" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="38">
   <si>
     <t>&gt; bias.orig.mod</t>
   </si>
@@ -156,12 +154,6 @@
   <si>
     <t>srmr.adj.str.obs.tri</t>
   </si>
-  <si>
-    <t>Low reliability</t>
-  </si>
-  <si>
-    <t>&amp;</t>
-  </si>
 </sst>
 </file>
 
@@ -169,7 +161,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -211,7 +203,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7234,12 +7226,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03FBCCE-0B82-0A49-82DC-474DB8FB00C0}">
   <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScale="144" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121:G129"/>
+    <sheetView topLeftCell="A139" zoomScale="144" workbookViewId="0">
+      <selection activeCell="A149" sqref="A149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="2" max="7" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
@@ -10576,8 +10569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B01658-2A94-244A-80CE-4898BC98ECF0}">
   <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121:G129"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13913,3236 +13906,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D943F0B-A7CA-9C44-823A-3E09AB501BD0}">
-  <dimension ref="A6:M38"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:M38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0.157</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="D9" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E9" s="4">
-        <v>6.2E-2</v>
-      </c>
-      <c r="F9" s="4">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="G9" s="4">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="H9" s="4">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="J9" s="4">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="L9" s="4">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="M9" s="4">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="4">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="C10" s="4">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="D10" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E10" s="4">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="F10" s="4">
-        <v>2E-3</v>
-      </c>
-      <c r="G10" s="4">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="I10" s="4">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="J10" s="4">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="K10" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="L10" s="4">
-        <v>-2E-3</v>
-      </c>
-      <c r="M10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="4">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="C11" s="4">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D11" s="4">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E11" s="4">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="I11" s="4">
-        <v>-0.01</v>
-      </c>
-      <c r="J11" s="4">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="K11" s="4">
-        <v>-2E-3</v>
-      </c>
-      <c r="L11" s="4">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="M11" s="4">
-        <v>-1E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="4">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="C12" s="4">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="D12" s="4">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="E12" s="4">
-        <v>3.1E-2</v>
-      </c>
-      <c r="F12" s="4">
-        <v>2.7E-2</v>
-      </c>
-      <c r="G12" s="4">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="H12" s="4">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="I12" s="4">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="J12" s="4">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="K12" s="4">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="L12" s="4">
-        <v>2E-3</v>
-      </c>
-      <c r="M12" s="4">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="4">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="C13" s="4">
-        <v>-2E-3</v>
-      </c>
-      <c r="D13" s="4">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="E13" s="4">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="F13" s="4">
-        <v>-1.0999999999999999E-2</v>
-      </c>
-      <c r="G13" s="4">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="I13" s="4">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="J13" s="4">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="K13" s="4">
-        <v>-2E-3</v>
-      </c>
-      <c r="L13" s="4">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="M13" s="4">
-        <v>-1E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="4">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="C14" s="4">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="D14" s="4">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="E14" s="4">
-        <v>-0.01</v>
-      </c>
-      <c r="F14" s="4">
-        <v>-1.4E-2</v>
-      </c>
-      <c r="G14" s="4">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="I14" s="4">
-        <v>-0.01</v>
-      </c>
-      <c r="J14" s="4">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="K14" s="4">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="L14" s="4">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="M14" s="4">
-        <v>-2E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="4">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="C15" s="4">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D15" s="4">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="E15" s="4">
-        <v>2.7E-2</v>
-      </c>
-      <c r="F15" s="4">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="G15" s="4">
-        <v>3.1E-2</v>
-      </c>
-      <c r="H15" s="4">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="I15" s="4">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="J15" s="4">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="K15" s="4">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="L15" s="4">
-        <v>2E-3</v>
-      </c>
-      <c r="M15" s="4">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B17" t="str">
-        <f>CONCATENATE(B9,"&amp;")</f>
-        <v>0.157&amp;</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" ref="C17:M17" si="0">CONCATENATE(C9,"&amp;")</f>
-        <v>0.103&amp;</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v>0.07&amp;</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>0.062&amp;</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v>0.068&amp;</v>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" si="0"/>
-        <v>0.056&amp;</v>
-      </c>
-      <c r="H17" t="str">
-        <f t="shared" si="0"/>
-        <v>0.058&amp;</v>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" si="0"/>
-        <v>0.02&amp;</v>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" si="0"/>
-        <v>0.011&amp;</v>
-      </c>
-      <c r="K17" t="str">
-        <f t="shared" si="0"/>
-        <v>0.01&amp;</v>
-      </c>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v>0.011&amp;</v>
-      </c>
-      <c r="M17" s="4">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B18" t="str">
-        <f t="shared" ref="B18:M23" si="1">CONCATENATE(B10,"&amp;")</f>
-        <v>0.066&amp;</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="1"/>
-        <v>0.009&amp;</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="1"/>
-        <v>0.005&amp;</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="1"/>
-        <v>0.006&amp;</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="1"/>
-        <v>0.002&amp;</v>
-      </c>
-      <c r="G18" t="str">
-        <f t="shared" si="1"/>
-        <v>0.008&amp;</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" si="1"/>
-        <v>0.03&amp;</v>
-      </c>
-      <c r="I18" t="str">
-        <f t="shared" si="1"/>
-        <v>-0.009&amp;</v>
-      </c>
-      <c r="J18" t="str">
-        <f t="shared" si="1"/>
-        <v>-0.003&amp;</v>
-      </c>
-      <c r="K18" t="str">
-        <f t="shared" si="1"/>
-        <v>-0.001&amp;</v>
-      </c>
-      <c r="L18" t="str">
-        <f t="shared" si="1"/>
-        <v>-0.002&amp;</v>
-      </c>
-      <c r="M18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B19" t="str">
-        <f t="shared" si="1"/>
-        <v>0.066&amp;</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="1"/>
-        <v>0.008&amp;</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="1"/>
-        <v>0.003&amp;</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="1"/>
-        <v>0.003&amp;</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="1"/>
-        <v>0&amp;</v>
-      </c>
-      <c r="G19" t="str">
-        <f t="shared" si="1"/>
-        <v>0.005&amp;</v>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" si="1"/>
-        <v>0.03&amp;</v>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" si="1"/>
-        <v>-0.01&amp;</v>
-      </c>
-      <c r="J19" t="str">
-        <f t="shared" si="1"/>
-        <v>-0.003&amp;</v>
-      </c>
-      <c r="K19" t="str">
-        <f t="shared" si="1"/>
-        <v>-0.002&amp;</v>
-      </c>
-      <c r="L19" t="str">
-        <f t="shared" si="1"/>
-        <v>-0.003&amp;</v>
-      </c>
-      <c r="M19" s="4">
-        <v>-1E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B20" t="str">
-        <f t="shared" si="1"/>
-        <v>0.089&amp;</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="1"/>
-        <v>0.033&amp;</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="1"/>
-        <v>0.033&amp;</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="1"/>
-        <v>0.031&amp;</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="1"/>
-        <v>0.027&amp;</v>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" si="1"/>
-        <v>0.033&amp;</v>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" si="1"/>
-        <v>0.033&amp;</v>
-      </c>
-      <c r="I20" t="str">
-        <f t="shared" si="1"/>
-        <v>-0.006&amp;</v>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" si="1"/>
-        <v>0.003&amp;</v>
-      </c>
-      <c r="K20" t="str">
-        <f t="shared" si="1"/>
-        <v>0.004&amp;</v>
-      </c>
-      <c r="L20" t="str">
-        <f t="shared" si="1"/>
-        <v>0.002&amp;</v>
-      </c>
-      <c r="M20" s="4">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B21" t="str">
-        <f t="shared" si="1"/>
-        <v>0.057&amp;</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="1"/>
-        <v>-0.002&amp;</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" si="1"/>
-        <v>-0.006&amp;</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="1"/>
-        <v>-0.006&amp;</v>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" si="1"/>
-        <v>-0.011&amp;</v>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" si="1"/>
-        <v>-0.003&amp;</v>
-      </c>
-      <c r="H21" t="str">
-        <f t="shared" si="1"/>
-        <v>0.03&amp;</v>
-      </c>
-      <c r="I21" t="str">
-        <f t="shared" si="1"/>
-        <v>-0.009&amp;</v>
-      </c>
-      <c r="J21" t="str">
-        <f t="shared" si="1"/>
-        <v>-0.003&amp;</v>
-      </c>
-      <c r="K21" t="str">
-        <f t="shared" si="1"/>
-        <v>-0.002&amp;</v>
-      </c>
-      <c r="L21" t="str">
-        <f t="shared" si="1"/>
-        <v>-0.003&amp;</v>
-      </c>
-      <c r="M21" s="4">
-        <v>-1E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B22" t="str">
-        <f t="shared" si="1"/>
-        <v>0.056&amp;</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" si="1"/>
-        <v>-0.003&amp;</v>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" si="1"/>
-        <v>-0.009&amp;</v>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" si="1"/>
-        <v>-0.01&amp;</v>
-      </c>
-      <c r="F22" t="str">
-        <f t="shared" si="1"/>
-        <v>-0.014&amp;</v>
-      </c>
-      <c r="G22" t="str">
-        <f t="shared" si="1"/>
-        <v>-0.008&amp;</v>
-      </c>
-      <c r="H22" t="str">
-        <f t="shared" si="1"/>
-        <v>0.03&amp;</v>
-      </c>
-      <c r="I22" t="str">
-        <f t="shared" si="1"/>
-        <v>-0.01&amp;</v>
-      </c>
-      <c r="J22" t="str">
-        <f t="shared" si="1"/>
-        <v>-0.004&amp;</v>
-      </c>
-      <c r="K22" t="str">
-        <f t="shared" si="1"/>
-        <v>-0.003&amp;</v>
-      </c>
-      <c r="L22" t="str">
-        <f t="shared" si="1"/>
-        <v>-0.004&amp;</v>
-      </c>
-      <c r="M22" s="4">
-        <v>-2E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B23" t="str">
-        <f t="shared" si="1"/>
-        <v>0.083&amp;</v>
-      </c>
-      <c r="C23" t="str">
-        <f t="shared" si="1"/>
-        <v>0.025&amp;</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" si="1"/>
-        <v>0.029&amp;</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="1"/>
-        <v>0.027&amp;</v>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" si="1"/>
-        <v>0.021&amp;</v>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="1"/>
-        <v>0.031&amp;</v>
-      </c>
-      <c r="H23" t="str">
-        <f t="shared" si="1"/>
-        <v>0.033&amp;</v>
-      </c>
-      <c r="I23" t="str">
-        <f t="shared" si="1"/>
-        <v>-0.006&amp;</v>
-      </c>
-      <c r="J23" t="str">
-        <f t="shared" si="1"/>
-        <v>0.003&amp;</v>
-      </c>
-      <c r="K23" t="str">
-        <f t="shared" si="1"/>
-        <v>0.004&amp;</v>
-      </c>
-      <c r="L23" t="str">
-        <f t="shared" si="1"/>
-        <v>0.002&amp;</v>
-      </c>
-      <c r="M23" s="4">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="4">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C32" s="4">
-        <v>0.04</v>
-      </c>
-      <c r="D32" s="4">
-        <v>2.3E-2</v>
-      </c>
-      <c r="E32" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="F32" s="4">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="G32" s="4">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="H32" s="4">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="I32" s="4">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="J32" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="K32" s="4">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="L32" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M32" s="4">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="4">
-        <v>3.1E-2</v>
-      </c>
-      <c r="C33" s="4">
-        <v>-1.0999999999999999E-2</v>
-      </c>
-      <c r="D33" s="4">
-        <v>-2E-3</v>
-      </c>
-      <c r="E33" s="4">
-        <v>0</v>
-      </c>
-      <c r="F33" s="4">
-        <v>-2E-3</v>
-      </c>
-      <c r="G33" s="4">
-        <v>0</v>
-      </c>
-      <c r="H33" s="4">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="I33" s="4">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="J33" s="4">
-        <v>0</v>
-      </c>
-      <c r="K33" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="L33" s="4">
-        <v>0</v>
-      </c>
-      <c r="M33" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="C34" s="4">
-        <v>-1.2E-2</v>
-      </c>
-      <c r="D34" s="4">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="E34" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="F34" s="4">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="G34" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="H34" s="4">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="I34" s="4">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="J34" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="K34" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="L34" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="M34" s="4">
-        <v>-1E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="4">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="C35" s="4">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="D35" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E35" s="4">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="F35" s="4">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G35" s="4">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="H35" s="4">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="I35" s="4">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="J35" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="K35" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="L35" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="M35" s="4">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="4">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="C36" s="4">
-        <v>-1.4999999999999999E-2</v>
-      </c>
-      <c r="D36" s="4">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="E36" s="4">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="F36" s="4">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="G36" s="4">
-        <v>-2E-3</v>
-      </c>
-      <c r="H36" s="4">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="I36" s="4">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="J36" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="K36" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="L36" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="M36" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="4">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="C37" s="4">
-        <v>-1.6E-2</v>
-      </c>
-      <c r="D37" s="4">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="E37" s="4">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="F37" s="4">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="G37" s="4">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="H37" s="4">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="I37" s="4">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="J37" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="K37" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="L37" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="M37" s="4">
-        <v>-1E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="4">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="C38" s="4">
-        <v>-0.01</v>
-      </c>
-      <c r="D38" s="4">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E38" s="4">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F38" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="G38" s="4">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="H38" s="4">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="I38" s="4">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="J38" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="K38" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="L38" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="M38" s="4">
-        <v>2E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDBE6876-9C50-BE40-AD6F-F796E18BF682}">
-  <dimension ref="A1:X32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="AA38" sqref="AA38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="4">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="4">
-        <v>2.4E-2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="4">
-        <v>1.6E-2</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="4">
-        <v>1.4E-2</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="4">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="4">
-        <v>1.4E-2</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="4">
-        <v>2.4E-2</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="4">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R1" s="4">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T1" s="4">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="V1" s="4">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="X1" s="4">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="4">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1.2E-2</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="4">
-        <v>1.2E-2</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" s="4">
-        <v>1.4E-2</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="4">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" s="4">
-        <v>2E-3</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" s="4">
-        <v>2E-3</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="V2" s="4">
-        <v>2E-3</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="X2" s="4">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="4">
-        <v>3.1E-2</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="4">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="4">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="4">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="4">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="4">
-        <v>2E-3</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T3" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="V3" s="4">
-        <v>0</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="X3" s="4">
-        <v>-1E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="4">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="4">
-        <v>-1.4999999999999999E-2</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="4">
-        <v>-0.02</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="4">
-        <v>-2.8000000000000001E-2</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="4">
-        <v>-2.8000000000000001E-2</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="4">
-        <v>-0.03</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="4">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="4">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="4">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T4" s="4">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="V4" s="4">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="X4" s="4">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1.2E-2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="4">
-        <v>-2E-3</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="4">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="4">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="4">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="4">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" s="4">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="4">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R5" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T5" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="V5" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="X5" s="4">
-        <v>-1E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2E-3</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="4">
-        <v>-1.7000000000000001E-2</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="4">
-        <v>-2.5999999999999999E-2</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="4">
-        <v>-3.4000000000000002E-2</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="4">
-        <v>-3.2000000000000001E-2</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="4">
-        <v>-3.7999999999999999E-2</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" s="4">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R6" s="4">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T6" s="4">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="V6" s="4">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="X6" s="4">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4">
-        <v>2E-3</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="4">
-        <v>-1.7999999999999999E-2</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="4">
-        <v>-2.5999999999999999E-2</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="4">
-        <v>-3.7999999999999999E-2</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="4">
-        <v>-3.5999999999999997E-2</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="4">
-        <v>-4.1000000000000002E-2</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" s="4">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P7" s="4">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R7" s="4">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T7" s="4">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="V7" s="4">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="X7" s="4">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="4">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="4">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="4">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="4">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="4">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N8" s="4">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P8" s="4">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R8" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T8" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="V8" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="X8" s="4">
-        <v>-1E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="4">
-        <v>-0.02</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="4">
-        <v>-3.3000000000000002E-2</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="4">
-        <v>-4.3999999999999997E-2</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="4">
-        <v>-3.9E-2</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="4">
-        <v>-0.05</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N9" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P9" s="4">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R9" s="4">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T9" s="4">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="V9" s="4">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="X9" s="4">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="C10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="C11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="W11" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="C12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="W12" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="4">
-        <v>2.3E-2</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="4">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="4">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L13" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N13" s="4">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P13" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R13" s="4">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T13" s="4">
-        <v>2E-3</v>
-      </c>
-      <c r="U13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="V13" s="4">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="W13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="X13" s="4">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="4">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="4">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="4">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L14" s="4">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N14" s="4">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P14" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R14" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T14" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="U14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="V14" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="W14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="X14" s="4">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="4">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="4">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="4">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="4">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L15" s="4">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N15" s="4">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P15" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R15" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T15" s="4">
-        <v>0</v>
-      </c>
-      <c r="U15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="V15" s="4">
-        <v>0</v>
-      </c>
-      <c r="W15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="X15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="4">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="4">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="4">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" s="4">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L16" s="4">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N16" s="4">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P16" s="4">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R16" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="S16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T16" s="4">
-        <v>-2E-3</v>
-      </c>
-      <c r="U16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="V16" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="W16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="X16" s="4">
-        <v>-2E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="4">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="4">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L17" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N17" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P17" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R17" s="4">
-        <v>0</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T17" s="4">
-        <v>0</v>
-      </c>
-      <c r="U17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="V17" s="4">
-        <v>0</v>
-      </c>
-      <c r="W17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="X17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="4">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="4">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="4">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" s="4">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L18" s="4">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N18" s="4">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P18" s="4">
-        <v>-2E-3</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R18" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="S18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T18" s="4">
-        <v>-2E-3</v>
-      </c>
-      <c r="U18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="V18" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="W18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="X18" s="4">
-        <v>-2E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="4">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="4">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="4">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="4">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" s="4">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L19" s="4">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N19" s="4">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P19" s="4">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R19" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="S19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T19" s="4">
-        <v>-2E-3</v>
-      </c>
-      <c r="U19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="V19" s="4">
-        <v>-2E-3</v>
-      </c>
-      <c r="W19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="X19" s="4">
-        <v>-2E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="4">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="4">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="4">
-        <v>-2E-3</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20" s="4">
-        <v>-2E-3</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L20" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N20" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P20" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R20" s="4">
-        <v>0</v>
-      </c>
-      <c r="S20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T20" s="4">
-        <v>0</v>
-      </c>
-      <c r="U20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="V20" s="4">
-        <v>0</v>
-      </c>
-      <c r="W20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="X20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="4">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="4">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="4">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="4">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" s="4">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L21" s="4">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N21" s="4">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P21" s="4">
-        <v>-2E-3</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R21" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="S21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T21" s="4">
-        <v>-2E-3</v>
-      </c>
-      <c r="U21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="V21" s="4">
-        <v>-2E-3</v>
-      </c>
-      <c r="W21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="X21" s="4">
-        <v>-2E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="C22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="S22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="U22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="W22" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="C23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="S23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="U23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="W23" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="4">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="4">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="4">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H24" s="4">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J24" s="4">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L24" s="4">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N24" s="4">
-        <v>1.2E-2</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P24" s="4">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="Q24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R24" s="4">
-        <v>2E-3</v>
-      </c>
-      <c r="S24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T24" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="U24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="V24" s="4">
-        <v>2E-3</v>
-      </c>
-      <c r="W24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="X24" s="4">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="4">
-        <v>1.6E-2</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="4">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" s="4">
-        <v>2E-3</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J25" s="4">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L25" s="4">
-        <v>2E-3</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N25" s="4">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P25" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="Q25" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R25" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="S25" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T25" s="4">
-        <v>0</v>
-      </c>
-      <c r="U25" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="V25" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="W25" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="X25" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="4">
-        <v>1.6E-2</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="4">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H26" s="4">
-        <v>2E-3</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J26" s="4">
-        <v>2E-3</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L26" s="4">
-        <v>2E-3</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N26" s="4">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P26" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="Q26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R26" s="4">
-        <v>0</v>
-      </c>
-      <c r="S26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T26" s="4">
-        <v>0</v>
-      </c>
-      <c r="U26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="V26" s="4">
-        <v>0</v>
-      </c>
-      <c r="W26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="X26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="4">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="4">
-        <v>-2E-3</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" s="4">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J27" s="4">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L27" s="4">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N27" s="4">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="O27" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P27" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="Q27" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R27" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="S27" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T27" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="U27" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="V27" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="W27" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="X27" s="4">
-        <v>-1E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="4">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="4">
-        <v>-2E-3</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H28" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J28" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L28" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N28" s="4">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="O28" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P28" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="Q28" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R28" s="4">
-        <v>0</v>
-      </c>
-      <c r="S28" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T28" s="4">
-        <v>0</v>
-      </c>
-      <c r="U28" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="V28" s="4">
-        <v>0</v>
-      </c>
-      <c r="W28" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="X28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="4">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" s="4">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H29" s="4">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J29" s="4">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L29" s="4">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N29" s="4">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P29" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R29" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="S29" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T29" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="U29" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="V29" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="W29" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="X29" s="4">
-        <v>-1E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="4">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" s="4">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H30" s="4">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J30" s="4">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L30" s="4">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N30" s="4">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="O30" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P30" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R30" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="S30" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T30" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="U30" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="V30" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="W30" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="X30" s="4">
-        <v>-1E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="4">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="4">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J31" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L31" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N31" s="4">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="O31" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P31" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="Q31" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R31" s="4">
-        <v>0</v>
-      </c>
-      <c r="S31" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T31" s="4">
-        <v>0</v>
-      </c>
-      <c r="U31" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="V31" s="4">
-        <v>0</v>
-      </c>
-      <c r="W31" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="X31" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="4">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="4">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32" s="4">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H32" s="4">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J32" s="4">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L32" s="4">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N32" s="4">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="O32" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P32" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="Q32" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R32" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="S32" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T32" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="U32" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="V32" s="4">
-        <v>-1E-3</v>
-      </c>
-      <c r="W32" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="X32" s="4">
-        <v>-1E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>